--- a/medicine/Enfance/Farshid_Mesghali/Farshid_Mesghali.xlsx
+++ b/medicine/Enfance/Farshid_Mesghali/Farshid_Mesghali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Farshid Mesghali (persan : فرشید مثقالی né en 1943 à Ispahan) est un illustrateur, peintre, sculpteur et réalisateur de films d'animation[1] iranien. Il est lauréat du prestigieux prix international, le Prix Hans Christian Andersen, catégorie Illustration, en 1974.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farshid Mesghali (persan : فرشید مثقالی né en 1943 à Ispahan) est un illustrateur, peintre, sculpteur et réalisateur de films d'animation iranien. Il est lauréat du prestigieux prix international, le Prix Hans Christian Andersen, catégorie Illustration, en 1974.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Ispahan, il suit des études d'art à l'université de Téhéran.
-Entre 1979 et 1983, il vit à Paris où il expose ses peintures. Il réside ensuite aux États-Unis de 1986 à 1997, puis retourne vivre à Téhéran en 2006[1]. 
+Entre 1979 et 1983, il vit à Paris où il expose ses peintures. Il réside ensuite aux États-Unis de 1986 à 1997, puis retourne vivre à Téhéran en 2006. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The little black fish, texte de Samad Behrangi, illustrations de Farshid Mesghali, 1968 Traduction française : Petit poisson noir, Grandir, 2006 
 Oncle Printemps, Grandir, 2009.
@@ -575,10 +591,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1969 : « Mention d'honneur » à Biennale d'illustration de Bratislava[2] pour ses illustrations de The little black fish (Petit poisson noir) (texte de Samad Behrangi)
-1973 : Pomme d'Or de Bratislava[2] de la Biennale d'illustration de Bratislava pour ses illustrations de Arash the Bowman (texte de S. Kasra)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1969 : « Mention d'honneur » à Biennale d'illustration de Bratislava pour ses illustrations de The little black fish (Petit poisson noir) (texte de Samad Behrangi)
+1973 : Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava pour ses illustrations de Arash the Bowman (texte de S. Kasra)
 1974 : Prix Hans Christian Andersen, catégorie Illustration</t>
         </is>
       </c>
